--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -5,16 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajaamour/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajaamour/Projects/eclipse-workspace/ICCS/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17C3C4C-00F3-1F43-86E4-D7DCE955A357}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8303A409-EACD-FE41-9B58-CF8571EE911A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{9E444810-36D6-F34D-A881-D56F74689435}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{9E444810-36D6-F34D-A881-D56F74689435}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3:$A$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$3:$B$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$3:$C$11</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$C$3:$C$11</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$A$3:$A$11</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$B$3:$B$11</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Bumps</t>
   </si>
@@ -51,7 +65,16 @@
     <t>Trial 3</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>Bumps 1</t>
+  </si>
+  <si>
+    <t>Lap Time 1</t>
+  </si>
+  <si>
+    <t>Lap Time 2</t>
+  </si>
+  <si>
+    <t>Bumps 2</t>
   </si>
 </sst>
 </file>
@@ -117,18 +140,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="47" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="47" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,6 +168,1437 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bumps 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8F5-0845-B0AB-6912C48FCF4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bumps 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E8F5-0845-B0AB-6912C48FCF4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="132396127"/>
+        <c:axId val="132344895"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lap Time 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="mm:ss.0">
+                  <c:v>1.8957175925925927E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6024305555555557E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="mm:ss.0">
+                  <c:v>1.1075231481481481E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="mm:ss.0">
+                  <c:v>1.0027777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0675925925925924E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="mm:ss.0">
+                  <c:v>1.0796296296296296E-3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="mm:ss.0">
+                  <c:v>8.9710648148148147E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="mm:ss.0">
+                  <c:v>9.0046296296296304E-4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="mm:ss.0">
+                  <c:v>8.1342592592592588E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E8F5-0845-B0AB-6912C48FCF4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lap Time 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="h:mm:ss">
+                  <c:v>1.8177083333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4002314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0796296296296296E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2175925925925921E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="h:mm:ss">
+                  <c:v>9.8877314814814813E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4907407407407408E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.752314814814815E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5231481481481471E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0844907407407395E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E8F5-0845-B0AB-6912C48FCF4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="147009487"/>
+        <c:axId val="147111055"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="132396127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (meters)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="132344895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="132344895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bumps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="132396127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="147111055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Lap Times (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="mm:ss.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="147009487"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="147009487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="147111055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFAFAB70-E117-634D-B3DA-9CFA35392F35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,253 +1898,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FBAC85-3AFA-3947-910C-49E83CD490EF}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.05</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>22</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1.8957175925925927E-3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>22</v>
       </c>
-      <c r="E3" s="6">
-        <v>0.10908564814814814</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="E3" s="5">
+        <v>1.8177083333333333E-3</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>17</v>
       </c>
-      <c r="C4" s="6">
-        <v>9.6354166666666671E-2</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="5">
+        <v>1.6024305555555557E-3</v>
+      </c>
+      <c r="D4" s="3">
         <v>14</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1.4002314814814815E-3</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.15</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.1075231481481481E-3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.0796296296296296E-3</v>
+      </c>
+      <c r="F5" s="3">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
+      <c r="G5" s="5">
         <v>5.3414351851851859E-2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1.1075231481481481E-3</v>
-      </c>
-      <c r="F5" s="4">
-        <v>10</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1.0796296296296296E-3</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.0027777777777778E-3</v>
+      </c>
+      <c r="D6" s="3">
         <v>8</v>
       </c>
-      <c r="C6" s="5">
+      <c r="E6" s="4">
         <v>9.2175925925925921E-4</v>
       </c>
-      <c r="D6" s="4">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.0027777777777778E-3</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.25</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.0675925925925924E-3</v>
+      </c>
+      <c r="D7" s="3">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
-        <v>5.9525462962962961E-2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6">
-        <v>6.4166666666666664E-2</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="E7" s="5">
+        <v>9.8877314814814813E-4</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.3</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.0796296296296296E-3</v>
+      </c>
+      <c r="D8" s="3">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="E8" s="4">
         <v>9.4907407407407408E-4</v>
       </c>
-      <c r="D8" s="4">
-        <v>10</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1.0796296296296296E-3</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.35</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>8.9710648148148147E-4</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>8</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>8.752314814814815E-4</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.4</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9.0046296296296304E-4</v>
+      </c>
+      <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="8">
-        <v>7.4930555555555558E-4</v>
-      </c>
-      <c r="D10" s="4">
-        <v>7</v>
-      </c>
-      <c r="E10" s="8">
-        <v>9.0046296296296304E-4</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="7">
+        <v>7.5231481481481471E-4</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.45</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>8.1342592592592588E-4</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>6</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>8.0844907407407395E-4</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="19" spans="6:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="F19" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>